--- a/integration-tests/test-data/VolunteerDatabaseInfo.xlsx
+++ b/integration-tests/test-data/VolunteerDatabaseInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t xml:space="preserve">First Name</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">End Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Active Mentor</t>
+    <t xml:space="preserve">Active Volunteer</t>
   </si>
   <si>
     <t xml:space="preserve">Attendance</t>
@@ -85,9 +85,6 @@
     <t xml:space="preserve">Mentee Year Level</t>
   </si>
   <si>
-    <t xml:space="preserve">Vaccination Status</t>
-  </si>
-  <si>
     <t xml:space="preserve">Police Check Renewal Date</t>
   </si>
   <si>
@@ -97,7 +94,7 @@
     <t xml:space="preserve">WWC Check Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Volunteer Agreement Complete</t>
+    <t xml:space="preserve">Mentor Agreement Complete</t>
   </si>
   <si>
     <t xml:space="preserve">Occupation</t>
@@ -278,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -288,27 +285,31 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -408,18 +409,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM4"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.75"/>
@@ -444,12 +445,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="15.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="21.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="23.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="23.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="49.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="45.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="27.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -471,16 +472,16 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -489,356 +490,346 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="n">
+        <v>479127437</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="8" t="n">
-        <v>479127437</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="10" t="n">
+      <c r="H2" s="11" t="n">
         <v>31495</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="12" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="11" t="n">
-        <v>6685035</v>
-      </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="V2" s="10"/>
+      <c r="W2" s="13" t="n">
+        <v>44927</v>
+      </c>
+      <c r="X2" s="13" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="12" t="n">
-        <v>44927</v>
-      </c>
-      <c r="X2" s="12" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="AF2" s="8" t="n">
-        <v>123123</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>479127437</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="8" t="n">
-        <v>479127437</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="10" t="n">
+      <c r="H3" s="11" t="n">
         <v>31495</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="M3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="12" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="11" t="n">
-        <v>6685035</v>
-      </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="U3" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="V3" s="10"/>
+      <c r="W3" s="13" t="n">
+        <v>44927</v>
+      </c>
+      <c r="X3" s="13" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="12" t="n">
-        <v>44927</v>
-      </c>
-      <c r="X3" s="12" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG3" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="AF3" s="8" t="n">
-        <v>123123</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>479127437</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="8" t="n">
-        <v>479127437</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="11" t="n">
         <v>31495</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="M4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="12" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="11" t="n">
-        <v>6685035</v>
-      </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="8" t="s">
+      <c r="T4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="U4" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="V4" s="10"/>
+      <c r="W4" s="13" t="n">
+        <v>44927</v>
+      </c>
+      <c r="X4" s="13" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="12" t="n">
-        <v>44927</v>
-      </c>
-      <c r="X4" s="12" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8" t="s">
+      <c r="AE4" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="AF4" s="8" t="n">
-        <v>123123</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH4" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="R1:S1" type="list">
-      <formula1>"Weekly,Fortnightly,Other"</formula1>
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="I1:J1 N1:O1 Y1 AA1" type="list">
+      <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="V1" type="list">
-      <formula1>"Confirmed,Uncofirmed"</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="K1" type="list">
+      <formula1>"Approved,Awaiting Consideration,Not Approved"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="L1" type="list">
       <formula1>"Armadale,Girrawheen"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="I1:J1 N1:O1 Z1 AB1" type="list">
-      <formula1>"Yes,No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="K1" type="list">
-      <formula1>"Approved,Awaiting Consideration,Not Approved"</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="R1:S1" type="list">
+      <formula1>"Weekly,Fortnightly,Other"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
